--- a/Data/Input/NotificationsRegions.xlsx
+++ b/Data/Input/NotificationsRegions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jordone\UiPathProjects2022\Scenario4And6.Performer\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-QAUPBOT2\.nuget\packages\scenario4and6.performer\9.2.0\lib\net45\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7B859B-577C-47C1-A102-B3DDA5288AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002158F4-A4E4-4AC2-A5FF-D654991A4F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26010" windowHeight="20160" xr2:uid="{237FB236-979A-4340-8AAB-92FBF32537FD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>France &amp; Benelux</t>
   </si>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8221732-6468-4127-B4C8-44062AC1A822}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,99 +482,86 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Input/NotificationsRegions.xlsx
+++ b/Data/Input/NotificationsRegions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-QAUPBOT2\.nuget\packages\scenario4and6.performer\9.2.0\lib\net45\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-QAUPBOT2\.nuget\packages\scenario4and6.performer\3.5.1\lib\net45\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002158F4-A4E4-4AC2-A5FF-D654991A4F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB3D81F-305B-407A-AF6A-754FB494A488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26010" windowHeight="20160" xr2:uid="{237FB236-979A-4340-8AAB-92FBF32537FD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>France &amp; Benelux</t>
   </si>
@@ -460,7 +460,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,82 +482,100 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">

--- a/Data/Input/NotificationsRegions.xlsx
+++ b/Data/Input/NotificationsRegions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-QAUPBOT2\.nuget\packages\scenario4and6.performer\3.5.1\lib\net45\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB3D81F-305B-407A-AF6A-754FB494A488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216F015C-57D9-4F76-A3C6-4581D888859D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26010" windowHeight="20160" xr2:uid="{237FB236-979A-4340-8AAB-92FBF32537FD}"/>
+    <workbookView xWindow="26160" yWindow="4770" windowWidth="16755" windowHeight="10650" xr2:uid="{237FB236-979A-4340-8AAB-92FBF32537FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>France &amp; Benelux</t>
   </si>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8221732-6468-4127-B4C8-44062AC1A822}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A11" sqref="A11:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,11 +577,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
